--- a/medicine/Psychotrope/Charles_de_Cazanove/Charles_de_Cazanove.xlsx
+++ b/medicine/Psychotrope/Charles_de_Cazanove/Charles_de_Cazanove.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Charles de Cazanove  est une maison de Champagne, fondée en 1811 à Avize et dont le siège est situé à Reims depuis 2003.
@@ -512,14 +524,16 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La maison de Champagne Charles de Cazanove est fondée en 1811, par Charles Gabriel de Bigault de Cazanove, héritier d'une lignée de maîtres verriers[3].
-La maison est d’abord achetée par le groupe Martini &amp; Rossi en 1958. Ensuite, elle rejoint Moët Hennessy en 1983, puis le négoce SAME en 1985[4].
-Le 5 février 1999, la société entre au marché libre de la Bourse de Paris[5].
-En 2002, la maison reprend, en contrat de location-gérance, le champagne Médot à Reims, qui commercialise environ 200 000 bouteilles[6].
-En février 2004, la maison intègre le groupe G.H. Martel[7].
-En 2017, Christophe Rapeneau, à la tête de la maison, est nommé « meilleur créateur de champagne de l’année », en obtenant le prix du « Sparkling Winemaker of the Year »[8].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison de Champagne Charles de Cazanove est fondée en 1811, par Charles Gabriel de Bigault de Cazanove, héritier d'une lignée de maîtres verriers.
+La maison est d’abord achetée par le groupe Martini &amp; Rossi en 1958. Ensuite, elle rejoint Moët Hennessy en 1983, puis le négoce SAME en 1985.
+Le 5 février 1999, la société entre au marché libre de la Bourse de Paris.
+En 2002, la maison reprend, en contrat de location-gérance, le champagne Médot à Reims, qui commercialise environ 200 000 bouteilles.
+En février 2004, la maison intègre le groupe G.H. Martel.
+En 2017, Christophe Rapeneau, à la tête de la maison, est nommé « meilleur créateur de champagne de l’année », en obtenant le prix du « Sparkling Winemaker of the Year ».
 </t>
         </is>
       </c>
@@ -550,10 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Les bâtiments
-La maison est installée depuis 2003, 8 place de la République à Reims, dans des bâtiments construits en 1923 pour Prat-Fontaine et Longuet Frères (P.F.L.), entreprise de Vins et spiritueux. Avant Charles de Cazanove, le bâtiment était occupé par le champagne Marie Stuart, lui-même succédant à l'ancienne limonaderie de Reims. Avant 1923 et la construction des bâtiments actuels, le terrain était occupé par l'usine à gaz Houzeau-Muiron[9]. Un monogramme aux initiales des propriétaires (PLF) figure sur le bâtiment coté rue Chaix d'Est-Ange.
-Les caves
-Le site de Reims, ne possède pas de cave taillée dans la craie comme c’est le cas dans les autres maisons de champagne à Reims, mais uniquement un sous-sol.
+          <t>Les bâtiments</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La maison est installée depuis 2003, 8 place de la République à Reims, dans des bâtiments construits en 1923 pour Prat-Fontaine et Longuet Frères (P.F.L.), entreprise de Vins et spiritueux. Avant Charles de Cazanove, le bâtiment était occupé par le champagne Marie Stuart, lui-même succédant à l'ancienne limonaderie de Reims. Avant 1923 et la construction des bâtiments actuels, le terrain était occupé par l'usine à gaz Houzeau-Muiron. Un monogramme aux initiales des propriétaires (PLF) figure sur le bâtiment coté rue Chaix d'Est-Ange.
 </t>
         </is>
       </c>
@@ -579,10 +596,21 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Le domaine viticole</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Historique des bâtiments et des caves</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Les caves</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le site de Reims, ne possède pas de cave taillée dans la craie comme c’est le cas dans les autres maisons de champagne à Reims, mais uniquement un sous-sol.
+</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -605,12 +633,42 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Le domaine viticole</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Charles_de_Cazanove</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Charles_de_Cazanove</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La production est environ de 3 millions de bouteilles par an[10].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production est environ de 3 millions de bouteilles par an.
 </t>
         </is>
       </c>
